--- a/reactive/power_throughput-ddra.xlsx
+++ b/reactive/power_throughput-ddra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\reactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D953C3EC-C730-4C73-BDE0-0FB0EA1E4FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74353230-FFB2-4ADE-B83A-2809B63AE3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3612" yWindow="0" windowWidth="30960" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8064" yWindow="768" windowWidth="26484" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -191,1723 +191,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.4549213341537297E-2"/>
-          <c:y val="3.3373821545849371E-2"/>
-          <c:w val="0.7422481518802222"/>
-          <c:h val="0.89776302625848903"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>routers_sw_dynamic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet!$D$102:$D$121</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet!$I$102:$I$121</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>5.9304476977499999E-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.18672359553E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.51459448165E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7248056638399999E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9160192292199998E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.02210224231E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0628375753100001E-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1332586411000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.1377066344500002E-5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.1812981288300001E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.1865094145500001E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.22611611853E-5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2287999085999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.2425700574300001E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.2845966998200002E-5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.27548127394E-5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.3039866058999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.2748098809600001E-5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.3087113071499999E-5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.3292531648000001E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B6CF-43D4-9D95-9355312FE7E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>routers_crossbar_dynamic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet!$D$102:$D$121</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet!$G$102:$G$121</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>2.1487979548199999E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.3051253905500003E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4982451173400001E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.2731828873700002E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.9751275675499996E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.3601693369500001E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.51813864025E-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.78461411143E-5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.7988515507899998E-5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.9696853522100006E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.9951432938600003E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.1421219380599995E-5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.1554358786100004E-5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.2114345482499996E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.3727692803200001E-5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.3357591272899994E-5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.4489346238000005E-5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.3422447222900004E-5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.4695348803600005E-5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.5398877539400003E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B6CF-43D4-9D95-9355312FE7E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>routers_buffer_dynamic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet!$D$2:$D$121</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet!$E$2:$E$121</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1.3110582767000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6244599830100001E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.35073678561E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.81771951146E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.2412940442800002E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.4754708057599999E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.5684032913099998E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.72598583026E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.7358836029899999E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8354035362599998E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.8485280718E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.9368796381600002E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.94464924941E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.9759142784500002E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.0712168169900001E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.05097493554E-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.1157956231300005E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.0518876363200003E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.1279964325399996E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.1728050785799996E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B6CF-43D4-9D95-9355312FE7E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet!$X$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>all_links_dynamic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet!$X$102:$X$121</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>2.3800000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.7699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.0599999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.8599999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.5799999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.9699999999999997E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.3000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.2799999999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.3900000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.3600000000000005E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.4800000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.4500000000000005E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.4800000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.5999999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.5400000000000005E-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.6200000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.4800000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.5999999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.6799999999999996E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-B6CF-43D4-9D95-9355312FE7E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>routers_total_dynamic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet!$M$102:$M$121</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>5.6291027996000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.7879430328400001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.8757806192300003E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.9323303813399999E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.9836194170799998E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0119483410500003E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.02322863597E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.0423558552299998E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.0435324868299998E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.05562873312E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.0572478789499996E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0679488890600002E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.0688858275000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.0727100185799998E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.0842738861800003E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.0817884422499999E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.0896873192899997E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.0819378543500004E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.0911606498100001E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.0965504617299998E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-B6CF-43D4-9D95-9355312FE7E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="130037519"/>
-        <c:axId val="130037039"/>
-        <c:axId val="92165407"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="130037519"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Injection</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> rate (packets/cycle/node)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="130037039"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="130037039"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Power</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="130037519"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:serAx>
-        <c:axId val="92165407"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130037039"/>
-      </c:serAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C9A8ED-D698-3B76-B9EC-D8CF2CFA9FE3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2199,7 +482,7 @@
   <dimension ref="A1:AA121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+      <selection activeCell="AB43" sqref="AB43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2207,14 +490,14 @@
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="19" width="0" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="0" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="19" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
@@ -2385,7 +668,7 @@
     </row>
     <row r="3" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -2468,7 +751,7 @@
     </row>
     <row r="4" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -2551,7 +834,7 @@
     </row>
     <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -2634,7 +917,7 @@
     </row>
     <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -2717,7 +1000,7 @@
     </row>
     <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -2800,7 +1083,7 @@
     </row>
     <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -2883,7 +1166,7 @@
     </row>
     <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -2966,7 +1249,7 @@
     </row>
     <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -3049,7 +1332,7 @@
     </row>
     <row r="11" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -3132,7 +1415,7 @@
     </row>
     <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -3215,7 +1498,7 @@
     </row>
     <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -3298,7 +1581,7 @@
     </row>
     <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -3381,7 +1664,7 @@
     </row>
     <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -3464,7 +1747,7 @@
     </row>
     <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -3547,7 +1830,7 @@
     </row>
     <row r="17" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -3630,7 +1913,7 @@
     </row>
     <row r="18" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -3713,7 +1996,7 @@
     </row>
     <row r="19" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -3796,7 +2079,7 @@
     </row>
     <row r="20" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -3879,7 +2162,7 @@
     </row>
     <row r="21" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -3962,7 +2245,7 @@
     </row>
     <row r="22" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -4045,7 +2328,7 @@
     </row>
     <row r="23" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -4128,7 +2411,7 @@
     </row>
     <row r="24" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -4211,7 +2494,7 @@
     </row>
     <row r="25" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -4294,7 +2577,7 @@
     </row>
     <row r="26" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -4377,7 +2660,7 @@
     </row>
     <row r="27" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -4460,7 +2743,7 @@
     </row>
     <row r="28" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -4543,7 +2826,7 @@
     </row>
     <row r="29" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -4626,7 +2909,7 @@
     </row>
     <row r="30" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -4709,7 +2992,7 @@
     </row>
     <row r="31" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -4792,7 +3075,7 @@
     </row>
     <row r="32" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -4875,7 +3158,7 @@
     </row>
     <row r="33" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -4958,7 +3241,7 @@
     </row>
     <row r="34" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -5041,7 +3324,7 @@
     </row>
     <row r="35" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -5124,7 +3407,7 @@
     </row>
     <row r="36" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -5207,7 +3490,7 @@
     </row>
     <row r="37" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -5290,7 +3573,7 @@
     </row>
     <row r="38" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -5373,7 +3656,7 @@
     </row>
     <row r="39" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -5456,7 +3739,7 @@
     </row>
     <row r="40" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -5539,7 +3822,7 @@
     </row>
     <row r="41" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -5620,9 +3903,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -5703,9 +3986,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -5786,9 +4069,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -5869,9 +4152,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -5952,9 +4235,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -6035,9 +4318,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -6118,9 +4401,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -6201,9 +4484,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -6284,9 +4567,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -6367,9 +4650,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
@@ -6450,9 +4733,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
@@ -6533,9 +4816,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -6616,9 +4899,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
@@ -6699,9 +4982,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
@@ -6782,9 +5065,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -6865,9 +5148,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -6948,9 +5231,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -7031,9 +5314,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -7114,9 +5397,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
@@ -7197,9 +5480,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -7282,7 +5565,7 @@
     </row>
     <row r="62" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
@@ -7365,7 +5648,7 @@
     </row>
     <row r="63" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -7448,7 +5731,7 @@
     </row>
     <row r="64" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>26</v>
@@ -7531,7 +5814,7 @@
     </row>
     <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -7614,7 +5897,7 @@
     </row>
     <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
@@ -7697,7 +5980,7 @@
     </row>
     <row r="67" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -7780,7 +6063,7 @@
     </row>
     <row r="68" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -7863,7 +6146,7 @@
     </row>
     <row r="69" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
@@ -7946,7 +6229,7 @@
     </row>
     <row r="70" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
@@ -8029,7 +6312,7 @@
     </row>
     <row r="71" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -8112,7 +6395,7 @@
     </row>
     <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
@@ -8195,7 +6478,7 @@
     </row>
     <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
@@ -8278,7 +6561,7 @@
     </row>
     <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -8361,7 +6644,7 @@
     </row>
     <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -8444,7 +6727,7 @@
     </row>
     <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
@@ -8527,7 +6810,7 @@
     </row>
     <row r="77" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>26</v>
@@ -8610,7 +6893,7 @@
     </row>
     <row r="78" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
@@ -8693,7 +6976,7 @@
     </row>
     <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
@@ -8776,7 +7059,7 @@
     </row>
     <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
@@ -8859,7 +7142,7 @@
     </row>
     <row r="81" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
@@ -8942,7 +7225,7 @@
     </row>
     <row r="82" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
@@ -9025,7 +7308,7 @@
     </row>
     <row r="83" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
@@ -9108,7 +7391,7 @@
     </row>
     <row r="84" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>26</v>
@@ -9191,7 +7474,7 @@
     </row>
     <row r="85" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
@@ -9274,7 +7557,7 @@
     </row>
     <row r="86" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>26</v>
@@ -9357,7 +7640,7 @@
     </row>
     <row r="87" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>26</v>
@@ -9440,7 +7723,7 @@
     </row>
     <row r="88" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>26</v>
@@ -9523,7 +7806,7 @@
     </row>
     <row r="89" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>26</v>
@@ -9606,7 +7889,7 @@
     </row>
     <row r="90" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
@@ -9689,7 +7972,7 @@
     </row>
     <row r="91" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>26</v>
@@ -9772,7 +8055,7 @@
     </row>
     <row r="92" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>26</v>
@@ -9855,7 +8138,7 @@
     </row>
     <row r="93" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>26</v>
@@ -9938,7 +8221,7 @@
     </row>
     <row r="94" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>26</v>
@@ -10021,7 +8304,7 @@
     </row>
     <row r="95" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
@@ -10104,7 +8387,7 @@
     </row>
     <row r="96" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>26</v>
@@ -10187,7 +8470,7 @@
     </row>
     <row r="97" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>26</v>
@@ -10270,7 +8553,7 @@
     </row>
     <row r="98" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>26</v>
@@ -10353,7 +8636,7 @@
     </row>
     <row r="99" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>26</v>
@@ -10436,7 +8719,7 @@
     </row>
     <row r="100" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>26</v>
@@ -10519,7 +8802,7 @@
     </row>
     <row r="101" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>26</v>
@@ -10600,9 +8883,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>26</v>
@@ -10683,9 +8966,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>26</v>
@@ -10766,9 +9049,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>26</v>
@@ -10849,9 +9132,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>26</v>
@@ -10932,9 +9215,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>26</v>
@@ -11015,9 +9298,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>26</v>
@@ -11098,9 +9381,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>26</v>
@@ -11181,9 +9464,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>26</v>
@@ -11264,9 +9547,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>26</v>
@@ -11347,9 +9630,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>26</v>
@@ -11430,9 +9713,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>26</v>
@@ -11513,9 +9796,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>26</v>
@@ -11596,9 +9879,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>26</v>
@@ -11679,9 +9962,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>26</v>
@@ -11762,9 +10045,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>26</v>
@@ -11845,9 +10128,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>26</v>
@@ -11928,9 +10211,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>26</v>
@@ -12011,9 +10294,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>26</v>
@@ -12094,9 +10377,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>26</v>
@@ -12177,9 +10460,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>26</v>
@@ -12264,12 +10547,11 @@
   <autoFilter ref="A1:AA121" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="uniform_random"/>
+        <filter val="shuffle"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/reactive/power_throughput-ddra.xlsx
+++ b/reactive/power_throughput-ddra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\reactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74353230-FFB2-4ADE-B83A-2809B63AE3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C919E89B-C533-4E19-B65B-5B3B105ADE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8064" yWindow="768" windowWidth="26484" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13140" yWindow="1164" windowWidth="26484" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -478,11 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB43" sqref="AB43"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -666,7 +665,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -749,7 +748,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -832,7 +831,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -915,7 +914,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -998,7 +997,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1081,7 +1080,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1164,7 +1163,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1247,7 +1246,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1330,7 +1329,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1413,7 +1412,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1496,7 +1495,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1579,7 +1578,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1662,7 +1661,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1745,7 +1744,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1828,7 +1827,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1911,7 +1910,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1994,7 +1993,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2077,7 +2076,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2160,7 +2159,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2243,7 +2242,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2326,7 +2325,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2409,7 +2408,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2492,7 +2491,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2575,7 +2574,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2658,7 +2657,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2741,7 +2740,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2824,7 +2823,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2907,7 +2906,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2990,7 +2989,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3073,7 +3072,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3156,7 +3155,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3239,7 +3238,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3322,7 +3321,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3405,7 +3404,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3488,7 +3487,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3571,7 +3570,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3654,7 +3653,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3737,7 +3736,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3820,7 +3819,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5563,7 +5562,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5646,7 +5645,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5729,7 +5728,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5812,7 +5811,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5895,7 +5894,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5978,7 +5977,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6061,7 +6060,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6144,7 +6143,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6227,7 +6226,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6310,7 +6309,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6393,7 +6392,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6476,7 +6475,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6559,7 +6558,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6642,7 +6641,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6725,7 +6724,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6808,7 +6807,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6891,7 +6890,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6974,7 +6973,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7057,7 +7056,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7140,7 +7139,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7223,7 +7222,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7306,7 +7305,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7389,7 +7388,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7472,7 +7471,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7555,7 +7554,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7638,7 +7637,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7721,7 +7720,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7804,7 +7803,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7887,7 +7886,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7970,7 +7969,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -8053,7 +8052,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -8136,7 +8135,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8219,7 +8218,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8302,7 +8301,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8385,7 +8384,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8468,7 +8467,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8551,7 +8550,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8634,7 +8633,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8717,7 +8716,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8800,7 +8799,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8883,7 +8882,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8966,7 +8965,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -9049,7 +9048,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -9132,7 +9131,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -9215,7 +9214,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -9298,7 +9297,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -9381,7 +9380,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -9464,7 +9463,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -9547,7 +9546,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -9630,7 +9629,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -9713,7 +9712,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -9796,7 +9795,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9879,7 +9878,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9962,7 +9961,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -10045,7 +10044,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -10128,7 +10127,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -10211,7 +10210,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -10294,7 +10293,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -10377,7 +10376,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -10460,7 +10459,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -10544,13 +10543,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA121" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="shuffle"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/reactive/power_throughput-ddra.xlsx
+++ b/reactive/power_throughput-ddra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\reactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C919E89B-C533-4E19-B65B-5B3B105ADE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF7A7DC-DB6E-4D58-9D97-E372E2D5B07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="1164" windowWidth="26484" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3084" yWindow="1344" windowWidth="26484" windowHeight="15048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,14 +489,14 @@
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="10" max="12" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="14" max="19" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="10" max="12" width="8.88671875" customWidth="1"/>
+    <col min="14" max="19" width="8.88671875" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">

--- a/reactive/power_throughput-ddra.xlsx
+++ b/reactive/power_throughput-ddra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\reactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF7A7DC-DB6E-4D58-9D97-E372E2D5B07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ECF2F3-BFC3-46A9-A5E8-B5EE1C5DF404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3084" yWindow="1344" windowWidth="26484" windowHeight="15048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7104" yWindow="696" windowWidth="26484" windowHeight="15048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
   <dimension ref="A1:AA121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/reactive/power_throughput-ddra.xlsx
+++ b/reactive/power_throughput-ddra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\reactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ECF2F3-BFC3-46A9-A5E8-B5EE1C5DF404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBCD2A4-008A-4FDD-A7EA-8E6414E59B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7104" yWindow="696" windowWidth="26484" windowHeight="15048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5892" yWindow="636" windowWidth="31740" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
   <dimension ref="A1:AA121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10553,7 +10553,7 @@
   <dimension ref="A1:AA121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+      <selection activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
